--- a/data/panelapp/au/Clefting disorders.xlsx
+++ b/data/panelapp/au/Clefting disorders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419478</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419490</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419493</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419496</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419499</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419502</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419504</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419507</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419510</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419513</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419515</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419518</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419521</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419524</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419527</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419529</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419532</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419535</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419538</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419541</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419543</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419546</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419549</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419551</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419554</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419557</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419559</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419562</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419564</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419567</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419570</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419573</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419576</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419579</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419581</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419584</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419586</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419589</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419592</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419595</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Clefting disorders</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419598</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1486,12 +1696,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>EIF4A3</t>
+          <t>EIF3F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eukaryotic translation initiation factor 4A3</t>
+          <t>eukaryotic translation initiation factor 3 subunit F</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1502,6 +1712,11 @@
       <c r="E43" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419601</t>
         </is>
       </c>
     </row>
@@ -1511,12 +1726,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>EOGT</t>
+          <t>EIF4A3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>EGF domain specific O-linked N-acetylglucosamine transferase</t>
+          <t>eukaryotic translation initiation factor 4A3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1527,6 +1742,11 @@
       <c r="E44" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419603</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1756,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>EPG5</t>
+          <t>EOGT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ectopic P-granules autophagy protein 5 homolog</t>
+          <t>EGF domain specific O-linked N-acetylglucosamine transferase</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1552,6 +1772,11 @@
       <c r="E45" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419606</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1786,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ESCO2</t>
+          <t>EPG5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>establishment of sister chromatid cohesion N-acetyltransferase 2</t>
+          <t>ectopic P-granules autophagy protein 5 homolog</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1577,6 +1802,11 @@
       <c r="E46" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419608</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1816,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>EYA1</t>
+          <t>ESCO2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EYA transcriptional coactivator and phosphatase 1</t>
+          <t>establishment of sister chromatid cohesion N-acetyltransferase 2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1602,6 +1832,11 @@
       <c r="E47" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419611</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1846,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FAM20C</t>
+          <t>EYA1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FAM20C, golgi associated secretory pathway kinase</t>
+          <t>EYA transcriptional coactivator and phosphatase 1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1627,6 +1862,11 @@
       <c r="E48" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419614</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1876,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FGD1</t>
+          <t>FAM20C</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>FYVE, RhoGEF and PH domain containing 1</t>
+          <t>FAM20C, golgi associated secretory pathway kinase</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1652,6 +1892,11 @@
       <c r="E49" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419616</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1906,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FGFR1</t>
+          <t>FGD1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fibroblast growth factor receptor 1</t>
+          <t>FYVE, RhoGEF and PH domain containing 1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1677,6 +1922,11 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419619</t>
         </is>
       </c>
     </row>
@@ -1686,12 +1936,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FGFR2</t>
+          <t>FGFR1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fibroblast growth factor receptor 2</t>
+          <t>fibroblast growth factor receptor 1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1702,6 +1952,11 @@
       <c r="E51" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419621</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1966,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FLNA</t>
+          <t>FGFR2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>filamin A</t>
+          <t>fibroblast growth factor receptor 2</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1727,6 +1982,11 @@
       <c r="E52" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419624</t>
         </is>
       </c>
     </row>
@@ -1736,12 +1996,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FLNB</t>
+          <t>FLNA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>filamin B</t>
+          <t>filamin A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1752,6 +2012,11 @@
       <c r="E53" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419627</t>
         </is>
       </c>
     </row>
@@ -1761,12 +2026,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FOXC2</t>
+          <t>FLNB</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>forkhead box C2</t>
+          <t>filamin B</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1777,6 +2042,11 @@
       <c r="E54" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419630</t>
         </is>
       </c>
     </row>
@@ -1786,12 +2056,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FOXE1</t>
+          <t>FOXC2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>forkhead box E1</t>
+          <t>forkhead box C2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1802,6 +2072,11 @@
       <c r="E55" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419633</t>
         </is>
       </c>
     </row>
@@ -1811,12 +2086,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FRAS1</t>
+          <t>FOXE1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Fraser extracellular matrix complex subunit 1</t>
+          <t>forkhead box E1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1827,6 +2102,11 @@
       <c r="E56" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419635</t>
         </is>
       </c>
     </row>
@@ -1836,12 +2116,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>GJA1</t>
+          <t>FRAS1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>gap junction protein alpha 1</t>
+          <t>Fraser extracellular matrix complex subunit 1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1852,6 +2132,11 @@
       <c r="E57" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419638</t>
         </is>
       </c>
     </row>
@@ -1861,12 +2146,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GLI3</t>
+          <t>GJA1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>GLI family zinc finger 3</t>
+          <t>gap junction protein alpha 1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1877,6 +2162,11 @@
       <c r="E58" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419640</t>
         </is>
       </c>
     </row>
@@ -1886,12 +2176,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GPC3</t>
+          <t>GLI3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>glypican 3</t>
+          <t>GLI family zinc finger 3</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1902,6 +2192,11 @@
       <c r="E59" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419643</t>
         </is>
       </c>
     </row>
@@ -1911,12 +2206,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>GRHL3</t>
+          <t>GPC3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>grainyhead like transcription factor 3</t>
+          <t>glypican 3</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1927,6 +2222,11 @@
       <c r="E60" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419646</t>
         </is>
       </c>
     </row>
@@ -1936,12 +2236,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>HDAC8</t>
+          <t>GRHL3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>histone deacetylase 8</t>
+          <t>grainyhead like transcription factor 3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1952,6 +2252,11 @@
       <c r="E61" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419648</t>
         </is>
       </c>
     </row>
@@ -1961,12 +2266,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HYLS1</t>
+          <t>HDAC8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HYLS1, centriolar and ciliogenesis associated</t>
+          <t>histone deacetylase 8</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1977,6 +2282,11 @@
       <c r="E62" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419651</t>
         </is>
       </c>
     </row>
@@ -1986,12 +2296,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ICK</t>
+          <t>HYLS1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>intestinal cell kinase</t>
+          <t>HYLS1, centriolar and ciliogenesis associated</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2002,6 +2312,11 @@
       <c r="E63" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419654</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2326,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IFT140</t>
+          <t>ICK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>intraflagellar transport 140</t>
+          <t>intestinal cell kinase</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2027,6 +2342,11 @@
       <c r="E64" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419656</t>
         </is>
       </c>
     </row>
@@ -2036,12 +2356,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>IFT172</t>
+          <t>IFT140</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>intraflagellar transport 172</t>
+          <t>intraflagellar transport 140</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2052,6 +2372,11 @@
       <c r="E65" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419659</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2386,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>IFT80</t>
+          <t>IFT172</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>intraflagellar transport 80</t>
+          <t>intraflagellar transport 172</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2077,6 +2402,11 @@
       <c r="E66" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419663</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2416,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IGF2</t>
+          <t>IFT80</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>insulin like growth factor 2</t>
+          <t>intraflagellar transport 80</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2102,6 +2432,11 @@
       <c r="E67" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419666</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2446,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IMPAD1</t>
+          <t>IGF2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>inositol monophosphatase domain containing 1</t>
+          <t>insulin like growth factor 2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2127,6 +2462,11 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419668</t>
         </is>
       </c>
     </row>
@@ -2136,12 +2476,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>IRF6</t>
+          <t>IMPAD1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>interferon regulatory factor 6</t>
+          <t>inositol monophosphatase domain containing 1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2152,6 +2492,11 @@
       <c r="E69" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419671</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2506,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>KAT6A</t>
+          <t>IRF6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>lysine acetyltransferase 6A</t>
+          <t>interferon regulatory factor 6</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2177,6 +2522,11 @@
       <c r="E70" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419674</t>
         </is>
       </c>
     </row>
@@ -2186,12 +2536,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>KCNJ2</t>
+          <t>KAT6A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>potassium voltage-gated channel subfamily J member 2</t>
+          <t>lysine acetyltransferase 6A</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2202,6 +2552,11 @@
       <c r="E71" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419676</t>
         </is>
       </c>
     </row>
@@ -2211,12 +2566,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>KDM6A</t>
+          <t>KCNJ2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>lysine demethylase 6A</t>
+          <t>potassium voltage-gated channel subfamily J member 2</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2227,6 +2582,11 @@
       <c r="E72" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419679</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2596,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>KIAA0586</t>
+          <t>KDM6A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>KIAA0586</t>
+          <t>lysine demethylase 6A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2252,6 +2612,11 @@
       <c r="E73" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419682</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2626,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>KIF1BP</t>
+          <t>KIAA0586</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>KIF1 binding protein</t>
+          <t>KIAA0586</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2277,6 +2642,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419684</t>
         </is>
       </c>
     </row>
@@ -2286,12 +2656,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KIF7</t>
+          <t>KIF1BP</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>kinesin family member 7</t>
+          <t>KIF1 binding protein</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2302,6 +2672,11 @@
       <c r="E75" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419687</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2686,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>KMT2D</t>
+          <t>KIF7</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>lysine methyltransferase 2D</t>
+          <t>kinesin family member 7</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2327,6 +2702,11 @@
       <c r="E76" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419689</t>
         </is>
       </c>
     </row>
@@ -2336,12 +2716,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MAP3K7</t>
+          <t>KMT2D</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>mitogen-activated protein kinase kinase kinase 7</t>
+          <t>lysine methyltransferase 2D</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2352,6 +2732,11 @@
       <c r="E77" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419692</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2746,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAPRE2</t>
+          <t>MAP3K7</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>microtubule associated protein RP/EB family member 2</t>
+          <t>mitogen-activated protein kinase kinase kinase 7</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2377,6 +2762,11 @@
       <c r="E78" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419696</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2776,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MASP1</t>
+          <t>MAPRE2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>mannan binding lectin serine peptidase 1</t>
+          <t>microtubule associated protein RP/EB family member 2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2402,6 +2792,11 @@
       <c r="E79" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419699</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2806,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MBTPS2</t>
+          <t>MASP1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>membrane bound transcription factor peptidase, site 2</t>
+          <t>mannan binding lectin serine peptidase 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2427,6 +2822,11 @@
       <c r="E80" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419702</t>
         </is>
       </c>
     </row>
@@ -2436,12 +2836,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MED12</t>
+          <t>MBTPS2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>mediator complex subunit 12</t>
+          <t>membrane bound transcription factor peptidase, site 2</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2452,6 +2852,11 @@
       <c r="E81" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419705</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2866,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MEIS2</t>
+          <t>MED12</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Meis homeobox 2</t>
+          <t>mediator complex subunit 12</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2477,6 +2882,11 @@
       <c r="E82" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419707</t>
         </is>
       </c>
     </row>
@@ -2486,12 +2896,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MID1</t>
+          <t>MEIS2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>midline 1</t>
+          <t>Meis homeobox 2</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2502,6 +2912,11 @@
       <c r="E83" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419710</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2926,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MKS1</t>
+          <t>MID1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Meckel syndrome, type 1</t>
+          <t>midline 1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2527,6 +2942,11 @@
       <c r="E84" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419713</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2956,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MSX1</t>
+          <t>MKS1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>msh homeobox 1</t>
+          <t>Meckel syndrome, type 1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2552,6 +2972,11 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419715</t>
         </is>
       </c>
     </row>
@@ -2561,12 +2986,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MYMK</t>
+          <t>MSX1</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>myomaker, myoblast fusion factor</t>
+          <t>msh homeobox 1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2577,6 +3002,11 @@
       <c r="E86" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419718</t>
         </is>
       </c>
     </row>
@@ -2586,12 +3016,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NECTIN1</t>
+          <t>MYMK</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>nectin cell adhesion molecule 1</t>
+          <t>myomaker, myoblast fusion factor</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2602,6 +3032,11 @@
       <c r="E87" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419720</t>
         </is>
       </c>
     </row>
@@ -2611,12 +3046,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NEDD4L</t>
+          <t>NECTIN1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>neural precursor cell expressed, developmentally down-regulated 4-like, E3 ubiquitin protein ligase</t>
+          <t>nectin cell adhesion molecule 1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2627,6 +3062,11 @@
       <c r="E88" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419723</t>
         </is>
       </c>
     </row>
@@ -2636,12 +3076,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NEK1</t>
+          <t>NEDD4L</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>NIMA related kinase 1</t>
+          <t>neural precursor cell expressed, developmentally down-regulated 4-like, E3 ubiquitin protein ligase</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2652,6 +3092,11 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419726</t>
         </is>
       </c>
     </row>
@@ -2661,12 +3106,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NIPBL</t>
+          <t>NEK1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NIPBL, cohesin loading factor</t>
+          <t>NIMA related kinase 1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2677,6 +3122,11 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419728</t>
         </is>
       </c>
     </row>
@@ -2686,12 +3136,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NOTCH1</t>
+          <t>NIPBL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>notch 1</t>
+          <t>NIPBL, cohesin loading factor</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2702,6 +3152,11 @@
       <c r="E91" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419731</t>
         </is>
       </c>
     </row>
@@ -2711,12 +3166,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>OFD1</t>
+          <t>NOTCH1</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>OFD1, centriole and centriolar satellite protein</t>
+          <t>notch 1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2727,6 +3182,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419733</t>
         </is>
       </c>
     </row>
@@ -2736,12 +3196,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PAX3</t>
+          <t>OFD1</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>paired box 3</t>
+          <t>OFD1, centriole and centriolar satellite protein</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2752,6 +3212,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419736</t>
         </is>
       </c>
     </row>
@@ -2761,12 +3226,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PGM1</t>
+          <t>PAX3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>phosphoglucomutase 1</t>
+          <t>paired box 3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2777,6 +3242,11 @@
       <c r="E94" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419740</t>
         </is>
       </c>
     </row>
@@ -2786,12 +3256,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PHF8</t>
+          <t>PGM1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>PHD finger protein 8</t>
+          <t>phosphoglucomutase 1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2802,6 +3272,11 @@
       <c r="E95" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419744</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3286,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PIEZO2</t>
+          <t>PHF8</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>piezo type mechanosensitive ion channel component 2</t>
+          <t>PHD finger protein 8</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2827,6 +3302,11 @@
       <c r="E96" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419746</t>
         </is>
       </c>
     </row>
@@ -2836,12 +3316,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PIGN</t>
+          <t>PIEZO2</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>phosphatidylinositol glycan anchor biosynthesis class N</t>
+          <t>piezo type mechanosensitive ion channel component 2</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2852,6 +3332,11 @@
       <c r="E97" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419749</t>
         </is>
       </c>
     </row>
@@ -2861,12 +3346,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PIGV</t>
+          <t>PIGN</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>phosphatidylinositol glycan anchor biosynthesis class V</t>
+          <t>phosphatidylinositol glycan anchor biosynthesis class N</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2877,6 +3362,11 @@
       <c r="E98" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419751</t>
         </is>
       </c>
     </row>
@@ -2886,12 +3376,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PLCB4</t>
+          <t>PIGV</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>phospholipase C beta 4</t>
+          <t>phosphatidylinositol glycan anchor biosynthesis class V</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2902,6 +3392,11 @@
       <c r="E99" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419754</t>
         </is>
       </c>
     </row>
@@ -2911,12 +3406,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>POLR1C</t>
+          <t>PLCB4</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit C</t>
+          <t>phospholipase C beta 4</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2927,6 +3422,11 @@
       <c r="E100" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419757</t>
         </is>
       </c>
     </row>
@@ -2936,12 +3436,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>POLR1D</t>
+          <t>POLR1C</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit D</t>
+          <t>RNA polymerase I subunit C</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2952,6 +3452,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419759</t>
         </is>
       </c>
     </row>
@@ -2961,12 +3466,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PORCN</t>
+          <t>POLR1D</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>porcupine O-acyltransferase</t>
+          <t>RNA polymerase I subunit D</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2977,6 +3482,11 @@
       <c r="E102" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419762</t>
         </is>
       </c>
     </row>
@@ -2986,12 +3496,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PPP1R13L</t>
+          <t>PORCN</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>protein phosphatase 1 regulatory subunit 13 like</t>
+          <t>porcupine O-acyltransferase</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3002,6 +3512,11 @@
       <c r="E103" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419764</t>
         </is>
       </c>
     </row>
@@ -3011,12 +3526,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PTCH1</t>
+          <t>PPP1R13L</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>patched 1</t>
+          <t>protein phosphatase 1 regulatory subunit 13 like</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3027,6 +3542,11 @@
       <c r="E104" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419767</t>
         </is>
       </c>
     </row>
@@ -3036,12 +3556,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RBM10</t>
+          <t>PTCH1</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>RNA binding motif protein 10</t>
+          <t>patched 1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3052,6 +3572,11 @@
       <c r="E105" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419770</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3586,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RIPK4</t>
+          <t>RBM10</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>receptor interacting serine/threonine kinase 4</t>
+          <t>RNA binding motif protein 10</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3077,6 +3602,11 @@
       <c r="E106" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419772</t>
         </is>
       </c>
     </row>
@@ -3086,12 +3616,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ROR2</t>
+          <t>RIPK4</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>receptor tyrosine kinase like orphan receptor 2</t>
+          <t>receptor interacting serine/threonine kinase 4</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3102,6 +3632,11 @@
       <c r="E107" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419775</t>
         </is>
       </c>
     </row>
@@ -3111,12 +3646,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RPL5</t>
+          <t>ROR2</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ribosomal protein L5</t>
+          <t>receptor tyrosine kinase like orphan receptor 2</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3127,6 +3662,11 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419777</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3676,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RPS26</t>
+          <t>RPL5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ribosomal protein S26</t>
+          <t>ribosomal protein L5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3152,6 +3692,11 @@
       <c r="E109" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419780</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3706,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RSPO2</t>
+          <t>RPS26</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>R-spondin 2</t>
+          <t>ribosomal protein S26</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3177,6 +3722,11 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419784</t>
         </is>
       </c>
     </row>
@@ -3186,12 +3736,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SALL4</t>
+          <t>RSPO2</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>spalt like transcription factor 4</t>
+          <t>R-spondin 2</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3202,6 +3752,11 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419787</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3766,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SATB2</t>
+          <t>SALL4</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SATB homeobox 2</t>
+          <t>spalt like transcription factor 4</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3227,6 +3782,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419790</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3796,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SCARF2</t>
+          <t>SATB2</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>scavenger receptor class F member 2</t>
+          <t>SATB homeobox 2</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3252,6 +3812,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419793</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3826,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SF3B2</t>
+          <t>SCARF2</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>splicing factor 3b subunit 2</t>
+          <t>scavenger receptor class F member 2</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3277,6 +3842,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419795</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3856,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SF3B4</t>
+          <t>SF3B2</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>splicing factor 3b subunit 4</t>
+          <t>splicing factor 3b subunit 2</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3302,6 +3872,11 @@
       <c r="E115" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419798</t>
         </is>
       </c>
     </row>
@@ -3311,12 +3886,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>SF3B4</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>sonic hedgehog</t>
+          <t>splicing factor 3b subunit 4</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3327,6 +3902,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419800</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3916,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>SIX1</t>
+          <t>SHH</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SIX homeobox 1</t>
+          <t>sonic hedgehog</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3352,6 +3932,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419803</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3946,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SIX3</t>
+          <t>SIX1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SIX homeobox 3</t>
+          <t>SIX homeobox 1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3377,6 +3962,11 @@
       <c r="E118" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419806</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3976,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SIX5</t>
+          <t>SIX3</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SIX homeobox 5</t>
+          <t>SIX homeobox 3</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3402,6 +3992,11 @@
       <c r="E119" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419808</t>
         </is>
       </c>
     </row>
@@ -3411,12 +4006,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SKI</t>
+          <t>SIX5</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>SKI proto-oncogene</t>
+          <t>SIX homeobox 5</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3427,6 +4022,11 @@
       <c r="E120" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419811</t>
         </is>
       </c>
     </row>
@@ -3436,12 +4036,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SLC26A2</t>
+          <t>SKI</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>solute carrier family 26 member 2</t>
+          <t>SKI proto-oncogene</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3452,6 +4052,11 @@
       <c r="E121" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419814</t>
         </is>
       </c>
     </row>
@@ -3461,12 +4066,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SMAD3</t>
+          <t>SLC26A2</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SMAD family member 3</t>
+          <t>solute carrier family 26 member 2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3477,6 +4082,11 @@
       <c r="E122" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419816</t>
         </is>
       </c>
     </row>
@@ -3486,12 +4096,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SMAD4</t>
+          <t>SMAD3</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>SMAD family member 4</t>
+          <t>SMAD family member 3</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3502,6 +4112,11 @@
       <c r="E123" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419819</t>
         </is>
       </c>
     </row>
@@ -3511,12 +4126,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SMC1A</t>
+          <t>SMAD4</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 1A</t>
+          <t>SMAD family member 4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3527,6 +4142,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419822</t>
         </is>
       </c>
     </row>
@@ -3536,12 +4156,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SMC3</t>
+          <t>SMC1A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>structural maintenance of chromosomes 3</t>
+          <t>structural maintenance of chromosomes 1A</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3552,6 +4172,11 @@
       <c r="E125" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419824</t>
         </is>
       </c>
     </row>
@@ -3561,12 +4186,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SMS</t>
+          <t>SMC3</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>spermine synthase</t>
+          <t>structural maintenance of chromosomes 3</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3577,6 +4202,11 @@
       <c r="E126" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419827</t>
         </is>
       </c>
     </row>
@@ -3586,12 +4216,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SNRPB</t>
+          <t>SMS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>small nuclear ribonucleoprotein polypeptides B and B1</t>
+          <t>spermine synthase</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3602,6 +4232,11 @@
       <c r="E127" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419830</t>
         </is>
       </c>
     </row>
@@ -3611,12 +4246,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SON</t>
+          <t>SNRPB</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>SON DNA binding protein</t>
+          <t>small nuclear ribonucleoprotein polypeptides B and B1</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3627,6 +4262,11 @@
       <c r="E128" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419832</t>
         </is>
       </c>
     </row>
@@ -3636,12 +4276,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SOX9</t>
+          <t>SON</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SRY-box 9</t>
+          <t>SON DNA binding protein</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3652,6 +4292,11 @@
       <c r="E129" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419835</t>
         </is>
       </c>
     </row>
@@ -3661,12 +4306,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SPECC1L</t>
+          <t>SOX9</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>sperm antigen with calponin homology and coiled-coil domains 1 like</t>
+          <t>SRY-box 9</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3677,6 +4322,11 @@
       <c r="E130" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419839</t>
         </is>
       </c>
     </row>
@@ -3686,12 +4336,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>STAMBP</t>
+          <t>SPECC1L</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>STAM binding protein</t>
+          <t>sperm antigen with calponin homology and coiled-coil domains 1 like</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3702,6 +4352,11 @@
       <c r="E131" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419842</t>
         </is>
       </c>
     </row>
@@ -3711,12 +4366,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TBX1</t>
+          <t>STAMBP</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>T-box 1</t>
+          <t>STAM binding protein</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3727,6 +4382,11 @@
       <c r="E132" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419845</t>
         </is>
       </c>
     </row>
@@ -3736,12 +4396,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TBX22</t>
+          <t>TBX1</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>T-box 22</t>
+          <t>T-box 1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3752,6 +4412,11 @@
       <c r="E133" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419848</t>
         </is>
       </c>
     </row>
@@ -3761,12 +4426,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TCOF1</t>
+          <t>TBX22</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>treacle ribosome biogenesis factor 1</t>
+          <t>T-box 22</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3777,6 +4442,11 @@
       <c r="E134" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419851</t>
         </is>
       </c>
     </row>
@@ -3786,12 +4456,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>TCTN3</t>
+          <t>TCOF1</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>tectonic family member 3</t>
+          <t>treacle ribosome biogenesis factor 1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3802,6 +4472,11 @@
       <c r="E135" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419853</t>
         </is>
       </c>
     </row>
@@ -3811,12 +4486,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TELO2</t>
+          <t>TCTN3</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>telomere maintenance 2</t>
+          <t>tectonic family member 3</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3827,6 +4502,11 @@
       <c r="E136" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419856</t>
         </is>
       </c>
     </row>
@@ -3836,12 +4516,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TFAP2A</t>
+          <t>TELO2</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>transcription factor AP-2 alpha</t>
+          <t>telomere maintenance 2</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3852,6 +4532,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419859</t>
         </is>
       </c>
     </row>
@@ -3861,12 +4546,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TGDS</t>
+          <t>TFAP2A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TDP-glucose 4,6-dehydratase</t>
+          <t>transcription factor AP-2 alpha</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3877,6 +4562,11 @@
       <c r="E138" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419861</t>
         </is>
       </c>
     </row>
@@ -3886,12 +4576,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TGFB3</t>
+          <t>TGDS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>transforming growth factor beta 3</t>
+          <t>TDP-glucose 4,6-dehydratase</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3902,6 +4592,11 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419864</t>
         </is>
       </c>
     </row>
@@ -3911,12 +4606,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TGFBR1</t>
+          <t>TGFB3</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>transforming growth factor beta receptor 1</t>
+          <t>transforming growth factor beta 3</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3927,6 +4622,11 @@
       <c r="E140" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419866</t>
         </is>
       </c>
     </row>
@@ -3936,12 +4636,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TGFBR2</t>
+          <t>TGFBR1</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>transforming growth factor beta receptor 2</t>
+          <t>transforming growth factor beta receptor 1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3952,6 +4652,11 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419869</t>
         </is>
       </c>
     </row>
@@ -3961,12 +4666,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TMCO1</t>
+          <t>TGFBR2</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>transmembrane and coiled-coil domains 1</t>
+          <t>transforming growth factor beta receptor 2</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3977,6 +4682,11 @@
       <c r="E142" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419872</t>
         </is>
       </c>
     </row>
@@ -3986,12 +4696,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TP63</t>
+          <t>TMCO1</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>tumor protein p63</t>
+          <t>transmembrane and coiled-coil domains 1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4002,6 +4712,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419874</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4726,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TRAPPC9</t>
+          <t>TP63</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>trafficking protein particle complex 9</t>
+          <t>tumor protein p63</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4027,6 +4742,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419877</t>
         </is>
       </c>
     </row>
@@ -4036,12 +4756,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRIM37</t>
+          <t>TRAPPC9</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>tripartite motif containing 37</t>
+          <t>trafficking protein particle complex 9</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4052,6 +4772,11 @@
       <c r="E145" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419887</t>
         </is>
       </c>
     </row>
@@ -4061,12 +4786,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRRAP</t>
+          <t>TRIM37</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>transformation/transcription domain associated protein</t>
+          <t>tripartite motif containing 37</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4077,6 +4802,11 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419893</t>
         </is>
       </c>
     </row>
@@ -4086,12 +4816,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TUBB</t>
+          <t>TRRAP</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>tubulin beta class I</t>
+          <t>transformation/transcription domain associated protein</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4102,6 +4832,11 @@
       <c r="E147" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419914</t>
         </is>
       </c>
     </row>
@@ -4111,12 +4846,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TXNL4A</t>
+          <t>TUBB</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>thioredoxin like 4A</t>
+          <t>tubulin beta class I</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4127,6 +4862,11 @@
       <c r="E148" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419921</t>
         </is>
       </c>
     </row>
@@ -4136,12 +4876,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>USP9X</t>
+          <t>TXNL4A</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ubiquitin specific peptidase 9, X-linked</t>
+          <t>thioredoxin like 4A</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4152,6 +4892,11 @@
       <c r="E149" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419925</t>
         </is>
       </c>
     </row>
@@ -4161,12 +4906,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>WNT5A</t>
+          <t>USP9X</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Wnt family member 5A</t>
+          <t>ubiquitin specific peptidase 9, X-linked</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4177,6 +4922,11 @@
       <c r="E150" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419931</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4936,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>XYLT1</t>
+          <t>WNT5A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>xylosyltransferase 1</t>
+          <t>Wnt family member 5A</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4202,6 +4952,11 @@
       <c r="E151" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419936</t>
         </is>
       </c>
     </row>
@@ -4211,12 +4966,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ZEB2</t>
+          <t>XYLT1</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>zinc finger E-box binding homeobox 2</t>
+          <t>xylosyltransferase 1</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4227,6 +4982,11 @@
       <c r="E152" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419939</t>
         </is>
       </c>
     </row>
@@ -4236,12 +4996,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ZIC2</t>
+          <t>ZEB2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Zic family member 2</t>
+          <t>zinc finger E-box binding homeobox 2</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4252,6 +5012,11 @@
       <c r="E153" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419942</t>
         </is>
       </c>
     </row>
@@ -4261,12 +5026,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ZIC3</t>
+          <t>ZIC2</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Zic family member 3</t>
+          <t>Zic family member 2</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4277,6 +5042,11 @@
       <c r="E154" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419944</t>
         </is>
       </c>
     </row>
@@ -4286,12 +5056,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ZSWIM6</t>
+          <t>ZIC3</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>zinc finger SWIM-type containing 6</t>
+          <t>Zic family member 3</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4302,6 +5072,11 @@
       <c r="E155" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419957</t>
         </is>
       </c>
     </row>
@@ -4311,22 +5086,27 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ALX3</t>
+          <t>ZSWIM6</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ALX homeobox 3</t>
+          <t>zinc finger SWIM-type containing 6</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419960</t>
         </is>
       </c>
     </row>
@@ -4336,12 +5116,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ANKRD17</t>
+          <t>ALX3</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ankyrin repeat domain 17</t>
+          <t>ALX homeobox 3</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4352,6 +5132,11 @@
       <c r="E157" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419963</t>
         </is>
       </c>
     </row>
@@ -4361,12 +5146,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ATR</t>
+          <t>ANKRD17</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ATR serine/threonine kinase</t>
+          <t>ankyrin repeat domain 17</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4377,6 +5162,11 @@
       <c r="E158" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419966</t>
         </is>
       </c>
     </row>
@@ -4386,12 +5176,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>B3GALT6</t>
+          <t>ATR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>beta-1,3-galactosyltransferase 6</t>
+          <t>ATR serine/threonine kinase</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4402,6 +5192,11 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419968</t>
         </is>
       </c>
     </row>
@@ -4411,12 +5206,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>B4GALT7</t>
+          <t>B3GALT6</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>beta-1,4-galactosyltransferase 7</t>
+          <t>beta-1,3-galactosyltransferase 6</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4427,6 +5222,11 @@
       <c r="E160" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419971</t>
         </is>
       </c>
     </row>
@@ -4436,12 +5236,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BUB1B</t>
+          <t>B4GALT7</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BUB1 mitotic checkpoint serine/threonine kinase B</t>
+          <t>beta-1,4-galactosyltransferase 7</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4452,6 +5252,11 @@
       <c r="E161" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419973</t>
         </is>
       </c>
     </row>
@@ -4461,12 +5266,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>CDC45</t>
+          <t>BUB1B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>cell division cycle 45</t>
+          <t>BUB1 mitotic checkpoint serine/threonine kinase B</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4477,6 +5282,11 @@
       <c r="E162" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419976</t>
         </is>
       </c>
     </row>
@@ -4486,12 +5296,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>COL9A2</t>
+          <t>CDC45</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>collagen type IX alpha 2 chain</t>
+          <t>cell division cycle 45</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4502,6 +5312,11 @@
       <c r="E163" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419980</t>
         </is>
       </c>
     </row>
@@ -4511,12 +5326,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>COL9A3</t>
+          <t>COL9A2</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>collagen type IX alpha 3 chain</t>
+          <t>collagen type IX alpha 2 chain</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4527,6 +5342,11 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419984</t>
         </is>
       </c>
     </row>
@@ -4536,12 +5356,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDX3X</t>
+          <t>COL9A3</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DEAD-box helicase 3, X-linked</t>
+          <t>collagen type IX alpha 3 chain</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4552,6 +5372,11 @@
       <c r="E165" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419987</t>
         </is>
       </c>
     </row>
@@ -4561,12 +5386,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDX59</t>
+          <t>DDX3X</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DEAD-box helicase 59</t>
+          <t>DEAD-box helicase 3, X-linked</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4577,6 +5402,11 @@
       <c r="E166" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419990</t>
         </is>
       </c>
     </row>
@@ -4586,12 +5416,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>EDN1</t>
+          <t>DDX59</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>endothelin 1</t>
+          <t>DEAD-box helicase 59</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4602,6 +5432,11 @@
       <c r="E167" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419992</t>
         </is>
       </c>
     </row>
@@ -4611,12 +5446,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ESRP2</t>
+          <t>EDN1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>epithelial splicing regulatory protein 2</t>
+          <t>endothelin 1</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4627,6 +5462,11 @@
       <c r="E168" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419995</t>
         </is>
       </c>
     </row>
@@ -4636,12 +5476,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>FBRSL1</t>
+          <t>ESRP2</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>fibrosin like 1</t>
+          <t>epithelial splicing regulatory protein 2</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4652,6 +5492,11 @@
       <c r="E169" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.419997</t>
         </is>
       </c>
     </row>
@@ -4661,12 +5506,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>FBXO11</t>
+          <t>FBRSL1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>F-box protein 11</t>
+          <t>fibrosin like 1</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4677,6 +5522,11 @@
       <c r="E170" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420000</t>
         </is>
       </c>
     </row>
@@ -4686,12 +5536,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>FOXP2</t>
+          <t>FBXO11</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>forkhead box P2</t>
+          <t>F-box protein 11</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4702,6 +5552,11 @@
       <c r="E171" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420003</t>
         </is>
       </c>
     </row>
@@ -4711,12 +5566,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>FTO</t>
+          <t>FOXP2</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>FTO, alpha-ketoglutarate dependent dioxygenase</t>
+          <t>forkhead box P2</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4727,6 +5582,11 @@
       <c r="E172" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420005</t>
         </is>
       </c>
     </row>
@@ -4736,12 +5596,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>GATA3</t>
+          <t>FTO</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>GATA binding protein 3</t>
+          <t>FTO, alpha-ketoglutarate dependent dioxygenase</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4752,6 +5612,11 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420008</t>
         </is>
       </c>
     </row>
@@ -4761,12 +5626,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GDF11</t>
+          <t>GATA3</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>growth differentiation factor 11</t>
+          <t>GATA binding protein 3</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4777,6 +5642,11 @@
       <c r="E174" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420013</t>
         </is>
       </c>
     </row>
@@ -4786,12 +5656,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>GNB1</t>
+          <t>GDF11</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>G protein subunit beta 1</t>
+          <t>growth differentiation factor 11</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4802,6 +5672,11 @@
       <c r="E175" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420016</t>
         </is>
       </c>
     </row>
@@ -4811,12 +5686,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>HYAL2</t>
+          <t>GNB1</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>hyaluronoglucosaminidase 2</t>
+          <t>G protein subunit beta 1</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -4827,6 +5702,11 @@
       <c r="E176" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420019</t>
         </is>
       </c>
     </row>
@@ -4836,12 +5716,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>IFT52</t>
+          <t>HYAL2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>intraflagellar transport 52</t>
+          <t>hyaluronoglucosaminidase 2</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -4852,6 +5732,11 @@
       <c r="E177" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420022</t>
         </is>
       </c>
     </row>
@@ -4861,12 +5746,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>KAT5</t>
+          <t>IFT52</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>lysine acetyltransferase 5</t>
+          <t>intraflagellar transport 52</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4877,6 +5762,11 @@
       <c r="E178" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420025</t>
         </is>
       </c>
     </row>
@@ -4886,12 +5776,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>KDM1A</t>
+          <t>KAT5</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>lysine demethylase 1A</t>
+          <t>lysine acetyltransferase 5</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4902,6 +5792,11 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420027</t>
         </is>
       </c>
     </row>
@@ -4911,12 +5806,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LMNA</t>
+          <t>KDM1A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>lamin A/C</t>
+          <t>lysine demethylase 1A</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4927,6 +5822,11 @@
       <c r="E180" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420030</t>
         </is>
       </c>
     </row>
@@ -4936,12 +5836,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>LRP6</t>
+          <t>LMNA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>LDL receptor related protein 6</t>
+          <t>lamin A/C</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4952,6 +5852,11 @@
       <c r="E181" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420033</t>
         </is>
       </c>
     </row>
@@ -4961,12 +5866,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>LRRC32</t>
+          <t>LRP6</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>leucine rich repeat containing 32</t>
+          <t>LDL receptor related protein 6</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4977,6 +5882,11 @@
       <c r="E182" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420035</t>
         </is>
       </c>
     </row>
@@ -4986,12 +5896,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MED13L</t>
+          <t>LRRC32</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>mediator complex subunit 13 like</t>
+          <t>leucine rich repeat containing 32</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5002,6 +5912,11 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420038</t>
         </is>
       </c>
     </row>
@@ -5011,12 +5926,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MED25</t>
+          <t>MED13L</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>mediator complex subunit 25</t>
+          <t>mediator complex subunit 13 like</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5027,6 +5942,11 @@
       <c r="E184" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420041</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5956,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MEOX1</t>
+          <t>MED25</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>mesenchyme homeobox 1</t>
+          <t>mediator complex subunit 25</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5052,6 +5972,11 @@
       <c r="E185" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420043</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5986,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MN1</t>
+          <t>MEOX1</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MN1 proto-oncogene, transcriptional regulator</t>
+          <t>mesenchyme homeobox 1</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5077,6 +6002,11 @@
       <c r="E186" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420046</t>
         </is>
       </c>
     </row>
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>PHGDH</t>
+          <t>MN1</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>phosphoglycerate dehydrogenase</t>
+          <t>MN1 proto-oncogene, transcriptional regulator</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420048</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>PLCH1</t>
+          <t>PHGDH</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>phospholipase C eta 1</t>
+          <t>phosphoglycerate dehydrogenase</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420051</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>PLEKHA5</t>
+          <t>PLCH1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>pleckstrin homology domain containing A5</t>
+          <t>phospholipase C eta 1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420054</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>PLEKHA7</t>
+          <t>PLEKHA5</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>pleckstrin homology domain containing A7</t>
+          <t>pleckstrin homology domain containing A5</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420056</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>POLR1A</t>
+          <t>PLEKHA7</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit A</t>
+          <t>pleckstrin homology domain containing A7</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420059</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>RARB</t>
+          <t>POLR1A</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>retinoic acid receptor beta</t>
+          <t>RNA polymerase I subunit A</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420062</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>RBPJ</t>
+          <t>RARB</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>recombination signal binding protein for immunoglobulin kappa J region</t>
+          <t>retinoic acid receptor beta</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420064</t>
         </is>
       </c>
     </row>
@@ -5261,12 +6226,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>RPL11</t>
+          <t>RBPJ</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ribosomal protein L11</t>
+          <t>recombination signal binding protein for immunoglobulin kappa J region</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5277,6 +6242,11 @@
       <c r="E194" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420067</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>RPS28</t>
+          <t>RPL11</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ribosomal protein S28</t>
+          <t>ribosomal protein L11</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420070</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>RYR1</t>
+          <t>RPS28</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ryanodine receptor 1</t>
+          <t>ribosomal protein S28</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420072</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SEC23A</t>
+          <t>RYR1</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Sec23 homolog A, coat complex II component</t>
+          <t>ryanodine receptor 1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420075</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SEPT9</t>
+          <t>SEC23A</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>septin 9</t>
+          <t>Sec23 homolog A, coat complex II component</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420078</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SHROOM3</t>
+          <t>SEPT9</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>shroom family member 3</t>
+          <t>septin 9</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420080</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SMG9</t>
+          <t>SHROOM3</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SMG9, nonsense mediated mRNA decay factor</t>
+          <t>shroom family member 3</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420083</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TBX15</t>
+          <t>SMG9</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>T-box 15</t>
+          <t>SMG9, nonsense mediated mRNA decay factor</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420086</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>TTC21B</t>
+          <t>TBX15</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 21B</t>
+          <t>T-box 15</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420089</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>WDR19</t>
+          <t>TTC21B</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>WD repeat domain 19</t>
+          <t>tetratricopeptide repeat domain 21B</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420092</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>WDR34</t>
+          <t>WDR19</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>WD repeat domain 34</t>
+          <t>WD repeat domain 19</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420094</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>WDR35</t>
+          <t>WDR34</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>WD repeat domain 35</t>
+          <t>WD repeat domain 34</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420097</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>WDR60</t>
+          <t>WDR35</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>WD repeat domain 60</t>
+          <t>WD repeat domain 35</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420099</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ZBTB24</t>
+          <t>WDR60</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>zinc finger and BTB domain containing 24</t>
+          <t>WD repeat domain 60</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420102</t>
         </is>
       </c>
     </row>
@@ -5611,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ZMPSTE24</t>
+          <t>ZBTB24</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>zinc metallopeptidase STE24</t>
+          <t>zinc finger and BTB domain containing 24</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5627,6 +6662,11 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420104</t>
         </is>
       </c>
     </row>
@@ -5636,22 +6676,27 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ACBD5</t>
+          <t>ZMPSTE24</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>acyl-CoA binding domain containing 5</t>
+          <t>zinc metallopeptidase STE24</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420107</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ALG9</t>
+          <t>ACBD5</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>ALG9, alpha-1,2-mannosyltransferase</t>
+          <t>acyl-CoA binding domain containing 5</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420109</t>
         </is>
       </c>
     </row>
@@ -5686,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>AMOTL1</t>
+          <t>ALG9</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>angiomotin like 1</t>
+          <t>ALG9, alpha-1,2-mannosyltransferase</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6752,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420112</t>
         </is>
       </c>
     </row>
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ARCN1</t>
+          <t>AMOTL1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>archain 1</t>
+          <t>angiomotin like 1</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420115</t>
         </is>
       </c>
     </row>
@@ -5736,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ATRX</t>
+          <t>ARCN1</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>ATRX, chromatin remodeler</t>
+          <t>archain 1</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5752,6 +6812,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420117</t>
         </is>
       </c>
     </row>
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>B3GAT3</t>
+          <t>ATRX</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>beta-1,3-glucuronyltransferase 3</t>
+          <t>ATRX, chromatin remodeler</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420120</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>CANT1</t>
+          <t>B3GAT3</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>calcium activated nucleotidase 1</t>
+          <t>beta-1,3-glucuronyltransferase 3</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420123</t>
         </is>
       </c>
     </row>
@@ -5811,12 +6886,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CASK</t>
+          <t>CANT1</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>calcium/calmodulin dependent serine protein kinase</t>
+          <t>calcium activated nucleotidase 1</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5827,6 +6902,11 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420125</t>
         </is>
       </c>
     </row>
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>CHD1</t>
+          <t>CASK</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>chromodomain helicase DNA binding protein 1</t>
+          <t>calcium/calmodulin dependent serine protein kinase</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420128</t>
         </is>
       </c>
     </row>
@@ -5861,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CHSY1</t>
+          <t>CHD1</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>chondroitin sulfate synthase 1</t>
+          <t>chromodomain helicase DNA binding protein 1</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5877,6 +6962,11 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420130</t>
         </is>
       </c>
     </row>
@@ -5886,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>CKAP2L</t>
+          <t>CHSY1</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>cytoskeleton associated protein 2 like</t>
+          <t>chondroitin sulfate synthase 1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5902,6 +6992,11 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420133</t>
         </is>
       </c>
     </row>
@@ -5911,12 +7006,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DIS3L2</t>
+          <t>CKAP2L</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DIS3 like 3'-5' exoribonuclease 2</t>
+          <t>cytoskeleton associated protein 2 like</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5927,6 +7022,11 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420135</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DLG1</t>
+          <t>DIS3L2</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>discs large MAGUK scaffold protein 1</t>
+          <t>DIS3 like 3'-5' exoribonuclease 2</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420138</t>
         </is>
       </c>
     </row>
@@ -5961,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DLX4</t>
+          <t>DLG1</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>distal-less homeobox 4</t>
+          <t>discs large MAGUK scaffold protein 1</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5977,6 +7082,11 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420140</t>
         </is>
       </c>
     </row>
@@ -5986,12 +7096,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DNMT3B</t>
+          <t>DLX4</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DNA methyltransferase 3 beta</t>
+          <t>distal-less homeobox 4</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6002,6 +7112,11 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420143</t>
         </is>
       </c>
     </row>
@@ -6011,12 +7126,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>FAM111A</t>
+          <t>DNMT3B</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>family with sequence similarity 111 member A</t>
+          <t>DNA methyltransferase 3 beta</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6027,6 +7142,11 @@
       <c r="E224" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420146</t>
         </is>
       </c>
     </row>
@@ -6036,12 +7156,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>FANCL</t>
+          <t>FAM111A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Fanconi anemia complementation group L</t>
+          <t>family with sequence similarity 111 member A</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6052,6 +7172,11 @@
       <c r="E225" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420148</t>
         </is>
       </c>
     </row>
@@ -6061,12 +7186,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>FREM2</t>
+          <t>FANCL</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>FRAS1 related extracellular matrix protein 2</t>
+          <t>Fanconi anemia complementation group L</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6077,6 +7202,11 @@
       <c r="E226" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420151</t>
         </is>
       </c>
     </row>
@@ -6086,12 +7216,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>FST</t>
+          <t>FREM2</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>follistatin</t>
+          <t>FRAS1 related extracellular matrix protein 2</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6102,6 +7232,11 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420153</t>
         </is>
       </c>
     </row>
@@ -6111,12 +7246,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>GATA6</t>
+          <t>FST</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>GATA binding protein 6</t>
+          <t>follistatin</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6127,6 +7262,11 @@
       <c r="E228" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420156</t>
         </is>
       </c>
     </row>
@@ -6136,12 +7276,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>GDF1</t>
+          <t>GATA6</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>growth differentiation factor 1</t>
+          <t>GATA binding protein 6</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6152,6 +7292,11 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420159</t>
         </is>
       </c>
     </row>
@@ -6161,12 +7306,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>GMNN</t>
+          <t>GDF1</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>geminin, DNA replication inhibitor</t>
+          <t>growth differentiation factor 1</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6177,6 +7322,11 @@
       <c r="E230" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420161</t>
         </is>
       </c>
     </row>
@@ -6186,12 +7336,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>GNAI3</t>
+          <t>GMNN</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>G protein subunit alpha i3</t>
+          <t>geminin, DNA replication inhibitor</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6202,6 +7352,11 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420164</t>
         </is>
       </c>
     </row>
@@ -6211,12 +7366,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>GRIP1</t>
+          <t>GNAI3</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>glutamate receptor interacting protein 1</t>
+          <t>G protein subunit alpha i3</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6227,6 +7382,11 @@
       <c r="E232" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420167</t>
         </is>
       </c>
     </row>
@@ -6236,12 +7396,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>HOXA2</t>
+          <t>GRIP1</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>homeobox A2</t>
+          <t>glutamate receptor interacting protein 1</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6252,6 +7412,11 @@
       <c r="E233" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420169</t>
         </is>
       </c>
     </row>
@@ -6261,12 +7426,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>INTS1</t>
+          <t>HOXA2</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>integrator complex subunit 1</t>
+          <t>homeobox A2</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6277,6 +7442,11 @@
       <c r="E234" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420174</t>
         </is>
       </c>
     </row>
@@ -6286,12 +7456,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>KANSL1</t>
+          <t>INTS1</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>KAT8 regulatory NSL complex subunit 1</t>
+          <t>integrator complex subunit 1</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6302,6 +7472,11 @@
       <c r="E235" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420176</t>
         </is>
       </c>
     </row>
@@ -6311,12 +7486,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>KAT6B</t>
+          <t>KANSL1</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>lysine acetyltransferase 6B</t>
+          <t>KAT8 regulatory NSL complex subunit 1</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6327,6 +7502,11 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420179</t>
         </is>
       </c>
     </row>
@@ -6336,12 +7516,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>KIF22</t>
+          <t>KAT6B</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>kinesin family member 22</t>
+          <t>lysine acetyltransferase 6B</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6352,6 +7532,11 @@
       <c r="E237" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420182</t>
         </is>
       </c>
     </row>
@@ -6361,12 +7546,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LMX1B</t>
+          <t>KIF22</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>LIM homeobox transcription factor 1 beta</t>
+          <t>kinesin family member 22</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6377,6 +7562,11 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420184</t>
         </is>
       </c>
     </row>
@@ -6386,12 +7576,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>METTL23</t>
+          <t>LMX1B</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>methyltransferase like 23</t>
+          <t>LIM homeobox transcription factor 1 beta</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6402,6 +7592,11 @@
       <c r="E239" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420187</t>
         </is>
       </c>
     </row>
@@ -6411,12 +7606,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NBN</t>
+          <t>METTL23</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>nibrin</t>
+          <t>methyltransferase like 23</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6427,6 +7622,11 @@
       <c r="E240" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420189</t>
         </is>
       </c>
     </row>
@@ -6436,12 +7636,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NKX2-5</t>
+          <t>NBN</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>NK2 homeobox 5</t>
+          <t>nibrin</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6452,6 +7652,11 @@
       <c r="E241" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420192</t>
         </is>
       </c>
     </row>
@@ -6461,12 +7666,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NKX2-6</t>
+          <t>NKX2-5</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>NK2 homeobox 6</t>
+          <t>NK2 homeobox 5</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6477,6 +7682,11 @@
       <c r="E242" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420195</t>
         </is>
       </c>
     </row>
@@ -6486,12 +7696,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NSDHL</t>
+          <t>NKX2-6</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>NAD(P) dependent steroid dehydrogenase-like</t>
+          <t>NK2 homeobox 6</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6502,6 +7712,11 @@
       <c r="E243" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420197</t>
         </is>
       </c>
     </row>
@@ -6511,12 +7726,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>PGAP2</t>
+          <t>NSDHL</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>post-GPI attachment to proteins 2</t>
+          <t>NAD(P) dependent steroid dehydrogenase-like</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6527,6 +7742,11 @@
       <c r="E244" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420200</t>
         </is>
       </c>
     </row>
@@ -6536,12 +7756,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PIGA</t>
+          <t>PGAP2</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>phosphatidylinositol glycan anchor biosynthesis class A</t>
+          <t>post-GPI attachment to proteins 2</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6552,6 +7772,11 @@
       <c r="E245" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420203</t>
         </is>
       </c>
     </row>
@@ -6561,12 +7786,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PIGL</t>
+          <t>PIGA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>phosphatidylinositol glycan anchor biosynthesis class L</t>
+          <t>phosphatidylinositol glycan anchor biosynthesis class A</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6577,6 +7802,11 @@
       <c r="E246" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420205</t>
         </is>
       </c>
     </row>
@@ -6586,12 +7816,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PIK3R2</t>
+          <t>PIGL</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>phosphoinositide-3-kinase regulatory subunit 2</t>
+          <t>phosphatidylinositol glycan anchor biosynthesis class L</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6602,6 +7832,11 @@
       <c r="E247" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420208</t>
         </is>
       </c>
     </row>
@@ -6611,12 +7846,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>POMT1</t>
+          <t>PIK3R2</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>protein O-mannosyltransferase 1</t>
+          <t>phosphoinositide-3-kinase regulatory subunit 2</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6627,6 +7862,11 @@
       <c r="E248" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420210</t>
         </is>
       </c>
     </row>
@@ -6636,12 +7876,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>POMT2</t>
+          <t>POMT1</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>protein O-mannosyltransferase 2</t>
+          <t>protein O-mannosyltransferase 1</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6652,6 +7892,11 @@
       <c r="E249" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420213</t>
         </is>
       </c>
     </row>
@@ -6661,12 +7906,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>PQBP1</t>
+          <t>POMT2</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>polyglutamine binding protein 1</t>
+          <t>protein O-mannosyltransferase 2</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6677,6 +7922,11 @@
       <c r="E250" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420215</t>
         </is>
       </c>
     </row>
@@ -6686,12 +7936,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>PSAT1</t>
+          <t>PQBP1</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>phosphoserine aminotransferase 1</t>
+          <t>polyglutamine binding protein 1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6702,6 +7952,11 @@
       <c r="E251" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420218</t>
         </is>
       </c>
     </row>
@@ -6711,12 +7966,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>PTDSS1</t>
+          <t>PSAT1</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>phosphatidylserine synthase 1</t>
+          <t>phosphoserine aminotransferase 1</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6727,6 +7982,11 @@
       <c r="E252" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420221</t>
         </is>
       </c>
     </row>
@@ -6736,12 +7996,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>RAI1</t>
+          <t>PTDSS1</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>retinoic acid induced 1</t>
+          <t>phosphatidylserine synthase 1</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6752,6 +8012,11 @@
       <c r="E253" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420223</t>
         </is>
       </c>
     </row>
@@ -6761,12 +8026,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>RBM8A</t>
+          <t>RAI1</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>RNA binding motif protein 8A</t>
+          <t>retinoic acid induced 1</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6777,6 +8042,11 @@
       <c r="E254" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420226</t>
         </is>
       </c>
     </row>
@@ -6786,12 +8056,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>RPS17</t>
+          <t>RBM8A</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>ribosomal protein S17</t>
+          <t>RNA binding motif protein 8A</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6802,6 +8072,11 @@
       <c r="E255" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420229</t>
         </is>
       </c>
     </row>
@@ -6811,12 +8086,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>RPS19</t>
+          <t>RPS17</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>ribosomal protein S19</t>
+          <t>ribosomal protein S17</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6827,6 +8102,11 @@
       <c r="E256" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420231</t>
         </is>
       </c>
     </row>
@@ -6836,12 +8116,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SELENOI</t>
+          <t>RPS19</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>selenoprotein I</t>
+          <t>ribosomal protein S19</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6852,6 +8132,11 @@
       <c r="E257" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420234</t>
         </is>
       </c>
     </row>
@@ -6861,12 +8146,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>SMAD2</t>
+          <t>SELENOI</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>SMAD family member 2</t>
+          <t>selenoprotein I</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6877,6 +8162,11 @@
       <c r="E258" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420236</t>
         </is>
       </c>
     </row>
@@ -6886,12 +8176,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>SMOC1</t>
+          <t>SMAD2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>SPARC related modular calcium binding 1</t>
+          <t>SMAD family member 2</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6902,6 +8192,11 @@
       <c r="E259" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420239</t>
         </is>
       </c>
     </row>
@@ -6911,12 +8206,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SOX2</t>
+          <t>SMOC1</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>SRY-box 2</t>
+          <t>SPARC related modular calcium binding 1</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6927,6 +8222,11 @@
       <c r="E260" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420241</t>
         </is>
       </c>
     </row>
@@ -6936,12 +8236,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>STIL</t>
+          <t>SOX2</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>STIL, centriolar assembly protein</t>
+          <t>SRY-box 2</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6952,6 +8252,11 @@
       <c r="E261" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420244</t>
         </is>
       </c>
     </row>
@@ -6961,12 +8266,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>STRA6</t>
+          <t>STIL</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>stimulated by retinoic acid 6</t>
+          <t>STIL, centriolar assembly protein</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6977,6 +8282,11 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420247</t>
         </is>
       </c>
     </row>
@@ -6986,12 +8296,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>STXBP1</t>
+          <t>STRA6</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>syntaxin binding protein 1</t>
+          <t>stimulated by retinoic acid 6</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7002,6 +8312,11 @@
       <c r="E263" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420250</t>
         </is>
       </c>
     </row>
@@ -7011,12 +8326,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SUMO1</t>
+          <t>STXBP1</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>small ubiquitin-like modifier 1</t>
+          <t>syntaxin binding protein 1</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7027,6 +8342,11 @@
       <c r="E264" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420252</t>
         </is>
       </c>
     </row>
@@ -7036,12 +8356,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TBX2</t>
+          <t>SUMO1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>T-box 2</t>
+          <t>small ubiquitin-like modifier 1</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7052,6 +8372,11 @@
       <c r="E265" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420255</t>
         </is>
       </c>
     </row>
@@ -7061,12 +8386,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TFAP2B</t>
+          <t>TBX2</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>transcription factor AP-2 beta</t>
+          <t>T-box 2</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7077,6 +8402,11 @@
       <c r="E266" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420257</t>
         </is>
       </c>
     </row>
@@ -7086,12 +8416,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TGFB2</t>
+          <t>TFAP2B</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>transforming growth factor beta 2</t>
+          <t>transcription factor AP-2 beta</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7102,6 +8432,11 @@
       <c r="E267" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420260</t>
         </is>
       </c>
     </row>
@@ -7111,12 +8446,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TOGARAM1</t>
+          <t>TGFB2</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>TOG array regulator of axonemal microtubules 1</t>
+          <t>transforming growth factor beta 2</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7127,6 +8462,11 @@
       <c r="E268" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420262</t>
         </is>
       </c>
     </row>
@@ -7136,12 +8476,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TSR2</t>
+          <t>TOGARAM1</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>TSR2, ribosome maturation factor</t>
+          <t>TOG array regulator of axonemal microtubules 1</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7152,6 +8492,11 @@
       <c r="E269" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420265</t>
         </is>
       </c>
     </row>
@@ -7161,12 +8506,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TWIST2</t>
+          <t>TSR2</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>twist family bHLH transcription factor 2</t>
+          <t>TSR2, ribosome maturation factor</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7177,6 +8522,11 @@
       <c r="E270" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420268</t>
         </is>
       </c>
     </row>
@@ -7186,12 +8536,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>UQCC2</t>
+          <t>TWIST2</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ubiquinol-cytochrome c reductase complex assembly factor 2</t>
+          <t>twist family bHLH transcription factor 2</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7202,6 +8552,11 @@
       <c r="E271" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420271</t>
         </is>
       </c>
     </row>
@@ -7211,12 +8566,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>VAX1</t>
+          <t>UQCC2</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>ventral anterior homeobox 1</t>
+          <t>ubiquinol-cytochrome c reductase complex assembly factor 2</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7227,6 +8582,11 @@
       <c r="E272" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420273</t>
         </is>
       </c>
     </row>
@@ -7236,12 +8596,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>WASHC5</t>
+          <t>VAX1</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>WASH complex subunit 5</t>
+          <t>ventral anterior homeobox 1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7252,6 +8612,11 @@
       <c r="E273" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420276</t>
         </is>
       </c>
     </row>
@@ -7261,12 +8626,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>WNT3</t>
+          <t>WASHC5</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Wnt family member 3</t>
+          <t>WASH complex subunit 5</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7277,6 +8642,11 @@
       <c r="E274" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420278</t>
         </is>
       </c>
     </row>
@@ -7286,12 +8656,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>YAP1</t>
+          <t>WNT3</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Yes associated protein 1</t>
+          <t>Wnt family member 3</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7302,6 +8672,11 @@
       <c r="E275" t="inlineStr">
         <is>
           <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420281</t>
         </is>
       </c>
     </row>
@@ -7311,22 +8686,57 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
+          <t>YAP1</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Yes associated protein 1</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420283</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
           <t>ZNF3</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>zinc finger protein 3</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="D277" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr">
-        <is>
-          <t>Clefting disorders</t>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:30.420286</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Clefting disorders.xlsx
+++ b/data/panelapp/au/Clefting disorders.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419478</t>
+          <t>2021-10-05 14:33:29.401419</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419490</t>
+          <t>2021-10-05 14:33:29.401425</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419493</t>
+          <t>2021-10-05 14:33:29.401428</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419496</t>
+          <t>2021-10-05 14:33:29.401430</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419499</t>
+          <t>2021-10-05 14:33:29.401432</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419502</t>
+          <t>2021-10-05 14:33:29.401434</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419504</t>
+          <t>2021-10-05 14:33:29.401436</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419507</t>
+          <t>2021-10-05 14:33:29.401438</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419510</t>
+          <t>2021-10-05 14:33:29.401440</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419513</t>
+          <t>2021-10-05 14:33:29.401442</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419515</t>
+          <t>2021-10-05 14:33:29.401444</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419518</t>
+          <t>2021-10-05 14:33:29.401446</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419521</t>
+          <t>2021-10-05 14:33:29.401448</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419524</t>
+          <t>2021-10-05 14:33:29.401450</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419527</t>
+          <t>2021-10-05 14:33:29.401452</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419529</t>
+          <t>2021-10-05 14:33:29.401454</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419532</t>
+          <t>2021-10-05 14:33:29.401456</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419535</t>
+          <t>2021-10-05 14:33:29.401458</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419538</t>
+          <t>2021-10-05 14:33:29.401460</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419541</t>
+          <t>2021-10-05 14:33:29.401462</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419543</t>
+          <t>2021-10-05 14:33:29.401464</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419546</t>
+          <t>2021-10-05 14:33:29.401466</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419549</t>
+          <t>2021-10-05 14:33:29.401468</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419551</t>
+          <t>2021-10-05 14:33:29.401470</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419554</t>
+          <t>2021-10-05 14:33:29.401473</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419557</t>
+          <t>2021-10-05 14:33:29.401475</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419559</t>
+          <t>2021-10-05 14:33:29.401477</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419562</t>
+          <t>2021-10-05 14:33:29.401479</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419564</t>
+          <t>2021-10-05 14:33:29.401481</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419567</t>
+          <t>2021-10-05 14:33:29.401483</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419570</t>
+          <t>2021-10-05 14:33:29.401485</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419573</t>
+          <t>2021-10-05 14:33:29.401486</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419576</t>
+          <t>2021-10-05 14:33:29.401489</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419579</t>
+          <t>2021-10-05 14:33:29.401491</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419581</t>
+          <t>2021-10-05 14:33:29.401493</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419584</t>
+          <t>2021-10-05 14:33:29.401495</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419586</t>
+          <t>2021-10-05 14:33:29.401497</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419589</t>
+          <t>2021-10-05 14:33:29.401498</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419592</t>
+          <t>2021-10-05 14:33:29.401500</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419595</t>
+          <t>2021-10-05 14:33:29.401502</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419598</t>
+          <t>2021-10-05 14:33:29.401505</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419601</t>
+          <t>2021-10-05 14:33:29.401507</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419603</t>
+          <t>2021-10-05 14:33:29.401509</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419606</t>
+          <t>2021-10-05 14:33:29.401511</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419608</t>
+          <t>2021-10-05 14:33:29.401513</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419611</t>
+          <t>2021-10-05 14:33:29.401515</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419614</t>
+          <t>2021-10-05 14:33:29.401516</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419616</t>
+          <t>2021-10-05 14:33:29.401519</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419619</t>
+          <t>2021-10-05 14:33:29.401521</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419621</t>
+          <t>2021-10-05 14:33:29.401523</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419624</t>
+          <t>2021-10-05 14:33:29.401525</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419627</t>
+          <t>2021-10-05 14:33:29.401527</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419630</t>
+          <t>2021-10-05 14:33:29.401529</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419633</t>
+          <t>2021-10-05 14:33:29.401531</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419635</t>
+          <t>2021-10-05 14:33:29.401533</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419638</t>
+          <t>2021-10-05 14:33:29.401535</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419640</t>
+          <t>2021-10-05 14:33:29.401537</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419643</t>
+          <t>2021-10-05 14:33:29.401539</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419646</t>
+          <t>2021-10-05 14:33:29.401541</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419648</t>
+          <t>2021-10-05 14:33:29.401543</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419651</t>
+          <t>2021-10-05 14:33:29.401545</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419654</t>
+          <t>2021-10-05 14:33:29.401547</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419656</t>
+          <t>2021-10-05 14:33:29.401549</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419659</t>
+          <t>2021-10-05 14:33:29.401551</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419663</t>
+          <t>2021-10-05 14:33:29.401554</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419666</t>
+          <t>2021-10-05 14:33:29.401556</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419668</t>
+          <t>2021-10-05 14:33:29.401558</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419671</t>
+          <t>2021-10-05 14:33:29.401560</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419674</t>
+          <t>2021-10-05 14:33:29.401562</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419676</t>
+          <t>2021-10-05 14:33:29.401564</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419679</t>
+          <t>2021-10-05 14:33:29.401566</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419682</t>
+          <t>2021-10-05 14:33:29.401568</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419684</t>
+          <t>2021-10-05 14:33:29.401570</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419687</t>
+          <t>2021-10-05 14:33:29.401572</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419689</t>
+          <t>2021-10-05 14:33:29.401574</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419692</t>
+          <t>2021-10-05 14:33:29.401576</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419696</t>
+          <t>2021-10-05 14:33:29.401579</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419699</t>
+          <t>2021-10-05 14:33:29.401582</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419702</t>
+          <t>2021-10-05 14:33:29.401584</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419705</t>
+          <t>2021-10-05 14:33:29.401586</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419707</t>
+          <t>2021-10-05 14:33:29.401588</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419710</t>
+          <t>2021-10-05 14:33:29.401590</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419713</t>
+          <t>2021-10-05 14:33:29.401592</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419715</t>
+          <t>2021-10-05 14:33:29.401594</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419718</t>
+          <t>2021-10-05 14:33:29.401596</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419720</t>
+          <t>2021-10-05 14:33:29.401598</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419723</t>
+          <t>2021-10-05 14:33:29.401600</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419726</t>
+          <t>2021-10-05 14:33:29.401601</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419728</t>
+          <t>2021-10-05 14:33:29.401604</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419731</t>
+          <t>2021-10-05 14:33:29.401606</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419733</t>
+          <t>2021-10-05 14:33:29.401608</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419736</t>
+          <t>2021-10-05 14:33:29.401609</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419740</t>
+          <t>2021-10-05 14:33:29.401613</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419744</t>
+          <t>2021-10-05 14:33:29.401615</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419746</t>
+          <t>2021-10-05 14:33:29.401617</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419749</t>
+          <t>2021-10-05 14:33:29.401619</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419751</t>
+          <t>2021-10-05 14:33:29.401621</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419754</t>
+          <t>2021-10-05 14:33:29.401623</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419757</t>
+          <t>2021-10-05 14:33:29.401625</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419759</t>
+          <t>2021-10-05 14:33:29.401627</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419762</t>
+          <t>2021-10-05 14:33:29.401629</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419764</t>
+          <t>2021-10-05 14:33:29.401631</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419767</t>
+          <t>2021-10-05 14:33:29.401633</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419770</t>
+          <t>2021-10-05 14:33:29.401635</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419772</t>
+          <t>2021-10-05 14:33:29.401637</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419775</t>
+          <t>2021-10-05 14:33:29.401639</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419777</t>
+          <t>2021-10-05 14:33:29.401641</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419780</t>
+          <t>2021-10-05 14:33:29.401644</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419784</t>
+          <t>2021-10-05 14:33:29.401647</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419787</t>
+          <t>2021-10-05 14:33:29.401649</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419790</t>
+          <t>2021-10-05 14:33:29.401651</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419793</t>
+          <t>2021-10-05 14:33:29.401653</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419795</t>
+          <t>2021-10-05 14:33:29.401655</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419798</t>
+          <t>2021-10-05 14:33:29.401657</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419800</t>
+          <t>2021-10-05 14:33:29.401659</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419803</t>
+          <t>2021-10-05 14:33:29.401661</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419806</t>
+          <t>2021-10-05 14:33:29.401663</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419808</t>
+          <t>2021-10-05 14:33:29.401665</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419811</t>
+          <t>2021-10-05 14:33:29.401667</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419814</t>
+          <t>2021-10-05 14:33:29.401669</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419816</t>
+          <t>2021-10-05 14:33:29.401671</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419819</t>
+          <t>2021-10-05 14:33:29.401673</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419822</t>
+          <t>2021-10-05 14:33:29.401675</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419824</t>
+          <t>2021-10-05 14:33:29.401677</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419827</t>
+          <t>2021-10-05 14:33:29.401679</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419830</t>
+          <t>2021-10-05 14:33:29.401681</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419832</t>
+          <t>2021-10-05 14:33:29.401682</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419835</t>
+          <t>2021-10-05 14:33:29.401685</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419839</t>
+          <t>2021-10-05 14:33:29.401688</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419842</t>
+          <t>2021-10-05 14:33:29.401690</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419845</t>
+          <t>2021-10-05 14:33:29.401693</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419848</t>
+          <t>2021-10-05 14:33:29.401695</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419851</t>
+          <t>2021-10-05 14:33:29.401697</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419853</t>
+          <t>2021-10-05 14:33:29.401699</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419856</t>
+          <t>2021-10-05 14:33:29.401700</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419859</t>
+          <t>2021-10-05 14:33:29.401702</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419861</t>
+          <t>2021-10-05 14:33:29.401704</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419864</t>
+          <t>2021-10-05 14:33:29.401706</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419866</t>
+          <t>2021-10-05 14:33:29.401708</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419869</t>
+          <t>2021-10-05 14:33:29.401711</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419872</t>
+          <t>2021-10-05 14:33:29.401713</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419874</t>
+          <t>2021-10-05 14:33:29.401715</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419877</t>
+          <t>2021-10-05 14:33:29.401716</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419887</t>
+          <t>2021-10-05 14:33:29.401719</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419893</t>
+          <t>2021-10-05 14:33:29.401720</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419914</t>
+          <t>2021-10-05 14:33:29.401722</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419921</t>
+          <t>2021-10-05 14:33:29.401724</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419925</t>
+          <t>2021-10-05 14:33:29.401726</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419931</t>
+          <t>2021-10-05 14:33:29.401729</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419936</t>
+          <t>2021-10-05 14:33:29.401731</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419939</t>
+          <t>2021-10-05 14:33:29.401733</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419942</t>
+          <t>2021-10-05 14:33:29.401735</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419944</t>
+          <t>2021-10-05 14:33:29.401737</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419957</t>
+          <t>2021-10-05 14:33:29.401739</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419960</t>
+          <t>2021-10-05 14:33:29.401741</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419963</t>
+          <t>2021-10-05 14:33:29.401743</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419966</t>
+          <t>2021-10-05 14:33:29.401745</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419968</t>
+          <t>2021-10-05 14:33:29.401747</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419971</t>
+          <t>2021-10-05 14:33:29.401749</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419973</t>
+          <t>2021-10-05 14:33:29.401751</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419976</t>
+          <t>2021-10-05 14:33:29.401753</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419980</t>
+          <t>2021-10-05 14:33:29.401755</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419984</t>
+          <t>2021-10-05 14:33:29.401756</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419987</t>
+          <t>2021-10-05 14:33:29.401759</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419990</t>
+          <t>2021-10-05 14:33:29.401761</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419992</t>
+          <t>2021-10-05 14:33:29.401763</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419995</t>
+          <t>2021-10-05 14:33:29.401765</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.419997</t>
+          <t>2021-10-05 14:33:29.401767</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420000</t>
+          <t>2021-10-05 14:33:29.401769</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420003</t>
+          <t>2021-10-05 14:33:29.401771</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420005</t>
+          <t>2021-10-05 14:33:29.401773</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420008</t>
+          <t>2021-10-05 14:33:29.401775</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420013</t>
+          <t>2021-10-05 14:33:29.401778</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420016</t>
+          <t>2021-10-05 14:33:29.401781</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420019</t>
+          <t>2021-10-05 14:33:29.401783</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420022</t>
+          <t>2021-10-05 14:33:29.401785</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420025</t>
+          <t>2021-10-05 14:33:29.401787</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420027</t>
+          <t>2021-10-05 14:33:29.401789</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420030</t>
+          <t>2021-10-05 14:33:29.401791</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420033</t>
+          <t>2021-10-05 14:33:29.401793</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420035</t>
+          <t>2021-10-05 14:33:29.401795</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420038</t>
+          <t>2021-10-05 14:33:29.401798</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420041</t>
+          <t>2021-10-05 14:33:29.401799</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420043</t>
+          <t>2021-10-05 14:33:29.401801</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420046</t>
+          <t>2021-10-05 14:33:29.401803</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420048</t>
+          <t>2021-10-05 14:33:29.401805</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420051</t>
+          <t>2021-10-05 14:33:29.401807</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420054</t>
+          <t>2021-10-05 14:33:29.401809</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420056</t>
+          <t>2021-10-05 14:33:29.401811</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420059</t>
+          <t>2021-10-05 14:33:29.401813</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420062</t>
+          <t>2021-10-05 14:33:29.401815</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420064</t>
+          <t>2021-10-05 14:33:29.401817</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420067</t>
+          <t>2021-10-05 14:33:29.401819</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420070</t>
+          <t>2021-10-05 14:33:29.401821</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420072</t>
+          <t>2021-10-05 14:33:29.401823</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420075</t>
+          <t>2021-10-05 14:33:29.401825</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420078</t>
+          <t>2021-10-05 14:33:29.401827</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420080</t>
+          <t>2021-10-05 14:33:29.401829</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420083</t>
+          <t>2021-10-05 14:33:29.401831</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420086</t>
+          <t>2021-10-05 14:33:29.401833</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420089</t>
+          <t>2021-10-05 14:33:29.401835</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420092</t>
+          <t>2021-10-05 14:33:29.401837</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420094</t>
+          <t>2021-10-05 14:33:29.401839</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420097</t>
+          <t>2021-10-05 14:33:29.401841</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420099</t>
+          <t>2021-10-05 14:33:29.401843</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420102</t>
+          <t>2021-10-05 14:33:29.401845</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420104</t>
+          <t>2021-10-05 14:33:29.401847</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420107</t>
+          <t>2021-10-05 14:33:29.401849</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420109</t>
+          <t>2021-10-05 14:33:29.401851</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420112</t>
+          <t>2021-10-05 14:33:29.401853</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420115</t>
+          <t>2021-10-05 14:33:29.401855</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420117</t>
+          <t>2021-10-05 14:33:29.401857</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420120</t>
+          <t>2021-10-05 14:33:29.401859</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420123</t>
+          <t>2021-10-05 14:33:29.401862</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420125</t>
+          <t>2021-10-05 14:33:29.401864</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420128</t>
+          <t>2021-10-05 14:33:29.401866</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420130</t>
+          <t>2021-10-05 14:33:29.401868</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420133</t>
+          <t>2021-10-05 14:33:29.401870</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420135</t>
+          <t>2021-10-05 14:33:29.401872</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420138</t>
+          <t>2021-10-05 14:33:29.401874</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420140</t>
+          <t>2021-10-05 14:33:29.401876</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420143</t>
+          <t>2021-10-05 14:33:29.401878</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420146</t>
+          <t>2021-10-05 14:33:29.401880</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420148</t>
+          <t>2021-10-05 14:33:29.401881</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420151</t>
+          <t>2021-10-05 14:33:29.401883</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420153</t>
+          <t>2021-10-05 14:33:29.401885</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420156</t>
+          <t>2021-10-05 14:33:29.401887</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420159</t>
+          <t>2021-10-05 14:33:29.401889</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420161</t>
+          <t>2021-10-05 14:33:29.401891</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420164</t>
+          <t>2021-10-05 14:33:29.401893</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420167</t>
+          <t>2021-10-05 14:33:29.401895</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420169</t>
+          <t>2021-10-05 14:33:29.401897</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420174</t>
+          <t>2021-10-05 14:33:29.401900</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420176</t>
+          <t>2021-10-05 14:33:29.401903</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420179</t>
+          <t>2021-10-05 14:33:29.401905</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420182</t>
+          <t>2021-10-05 14:33:29.401907</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420184</t>
+          <t>2021-10-05 14:33:29.401909</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420187</t>
+          <t>2021-10-05 14:33:29.401911</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420189</t>
+          <t>2021-10-05 14:33:29.401913</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420192</t>
+          <t>2021-10-05 14:33:29.401915</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420195</t>
+          <t>2021-10-05 14:33:29.401917</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420197</t>
+          <t>2021-10-05 14:33:29.401919</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420200</t>
+          <t>2021-10-05 14:33:29.401921</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420203</t>
+          <t>2021-10-05 14:33:29.401923</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420205</t>
+          <t>2021-10-05 14:33:29.401925</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420208</t>
+          <t>2021-10-05 14:33:29.401928</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420210</t>
+          <t>2021-10-05 14:33:29.401929</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420213</t>
+          <t>2021-10-05 14:33:29.401932</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420215</t>
+          <t>2021-10-05 14:33:29.401934</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420218</t>
+          <t>2021-10-05 14:33:29.401936</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420221</t>
+          <t>2021-10-05 14:33:29.401938</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420223</t>
+          <t>2021-10-05 14:33:29.401940</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420226</t>
+          <t>2021-10-05 14:33:29.401942</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420229</t>
+          <t>2021-10-05 14:33:29.401944</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420231</t>
+          <t>2021-10-05 14:33:29.401946</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420234</t>
+          <t>2021-10-05 14:33:29.401948</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420236</t>
+          <t>2021-10-05 14:33:29.401950</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420239</t>
+          <t>2021-10-05 14:33:29.401952</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420241</t>
+          <t>2021-10-05 14:33:29.401954</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420244</t>
+          <t>2021-10-05 14:33:29.401956</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420247</t>
+          <t>2021-10-05 14:33:29.401958</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420250</t>
+          <t>2021-10-05 14:33:29.401960</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420252</t>
+          <t>2021-10-05 14:33:29.401962</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420255</t>
+          <t>2021-10-05 14:33:29.401964</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420257</t>
+          <t>2021-10-05 14:33:29.401966</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420260</t>
+          <t>2021-10-05 14:33:29.401968</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420262</t>
+          <t>2021-10-05 14:33:29.401970</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420265</t>
+          <t>2021-10-05 14:33:29.401972</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420268</t>
+          <t>2021-10-05 14:33:29.401974</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420271</t>
+          <t>2021-10-05 14:33:29.401976</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420273</t>
+          <t>2021-10-05 14:33:29.401978</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420276</t>
+          <t>2021-10-05 14:33:29.401980</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420278</t>
+          <t>2021-10-05 14:33:29.401982</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420281</t>
+          <t>2021-10-05 14:33:29.401984</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420283</t>
+          <t>2021-10-05 14:33:29.401986</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,91 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:30.420286</t>
+          <t>2021-10-05 14:33:29.401988</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Clefting disorders</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3368</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.142</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-01T08:22:37.170305Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:29.398795</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/3368/?format=json</t>
         </is>
       </c>
     </row>
